--- a/src/test/data/APITestData.xlsx
+++ b/src/test/data/APITestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitiverma/TestAutomation/src/test/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitiverma/QATest/QATestAutomation/src/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DE7092-557B-6A4A-AF66-F32E627155FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D61687-0883-2044-AB8B-351B25E44C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{DD54432C-77A1-444F-97AB-AA51A540EB06}"/>
   </bookViews>
@@ -55,7 +55,7 @@
     <t>currentPetName</t>
   </si>
   <si>
-    <t>9223372000001084428</t>
+    <t>9223372000001085750</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
